--- a/doc/30_詳細設計/【CMS】詳細設計-テーブル定義書.xlsx
+++ b/doc/30_詳細設計/【CMS】詳細設計-テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaw\Desktop\workspace-teama\team\doc\30_詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02917711-58EC-42BC-A836-E5A95971230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07E4A99-62D8-49D6-AAF4-9AF1479E15A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -47,13 +47,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="80">
   <si>
     <r>
       <rPr>
         <sz val="36"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">プロジェクト：CMS
@@ -64,6 +66,8 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">チーム：EB </t>
@@ -82,6 +86,8 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>　作成日：20230413</t>
@@ -365,12 +371,29 @@
     <t>certificate_name_plan</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>user_idの削除、項目変更</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>徐泽鍇</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,12 +524,16 @@
       <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,6 +552,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1443,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1655,6 +1689,27 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1682,6 +1737,108 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1697,314 +1854,194 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2495,24 +2532,24 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="75"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="82"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -2525,22 +2562,22 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="78"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="85"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -2553,22 +2590,22 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="78"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="85"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -2581,22 +2618,22 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="78"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="85"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -2609,22 +2646,22 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="78"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="85"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -2637,22 +2674,22 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="85"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -2665,22 +2702,22 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="85"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -2693,22 +2730,22 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="85"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -2721,22 +2758,22 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="78"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="85"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -2749,22 +2786,22 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="78"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="85"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -2777,22 +2814,22 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="78"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="85"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -2805,22 +2842,22 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="78"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="85"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -2833,22 +2870,22 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="81"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="88"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -4692,8 +4729,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:N3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4766,11 +4803,22 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="190" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="34">
+        <f ca="1">TODAY()</f>
+        <v>45036</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="B5" s="31"/>
@@ -7947,25 +7995,25 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="117"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="93"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -7981,37 +8029,37 @@
         <v>10</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="119"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="118" t="str">
+      <c r="L3" s="94" t="str">
         <f>履歴情報!E3</f>
         <v>徐泽锴/崔光普秀</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="120">
+      <c r="P3" s="98">
         <f>履歴情報!F3</f>
         <v>45029</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="91"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="99"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -8051,41 +8099,41 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="124" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="126" t="s">
+      <c r="J5" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="124" t="s">
+      <c r="M5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="N5" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="128" t="s">
+      <c r="O5" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="131"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -8097,27 +8145,27 @@
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="136" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="135"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="115"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -8132,16 +8180,16 @@
       <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="99" t="s">
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="119"/>
       <c r="I7" s="14" t="s">
         <v>31</v>
       </c>
@@ -8170,16 +8218,16 @@
       <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="99" t="s">
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
       <c r="I8" s="14" t="s">
         <v>69</v>
       </c>
@@ -8210,16 +8258,16 @@
       <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="111" t="s">
+      <c r="D9" s="121"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="45" t="s">
         <v>37</v>
       </c>
@@ -8250,16 +8298,16 @@
       <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="111" t="s">
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="113"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
       <c r="I10" s="45" t="s">
         <v>37</v>
       </c>
@@ -8288,22 +8336,22 @@
     <row r="11" spans="1:26" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="16"/>
       <c r="J11" s="17"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="86"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="127"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -8316,22 +8364,22 @@
     <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="86"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="127"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -8344,22 +8392,22 @@
     <row r="13" spans="1:26" ht="18" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="40"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="86"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="127"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -8372,22 +8420,22 @@
     <row r="14" spans="1:26" ht="18" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="86"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="127"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -8400,22 +8448,22 @@
     <row r="15" spans="1:26" ht="18" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="16"/>
       <c r="J15" s="17"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="86"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="127"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -8428,22 +8476,22 @@
     <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="86"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="127"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -8456,22 +8504,22 @@
     <row r="17" spans="1:26" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="16"/>
       <c r="J17" s="17"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="86"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="127"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -8484,22 +8532,22 @@
     <row r="18" spans="1:26" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="86"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="127"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -8512,22 +8560,22 @@
     <row r="19" spans="1:26" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="86"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="127"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -8540,22 +8588,22 @@
     <row r="20" spans="1:26" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="16"/>
       <c r="J20" s="17"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="86"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="127"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -8568,22 +8616,22 @@
     <row r="21" spans="1:26" ht="18" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
       <c r="I21" s="16"/>
       <c r="J21" s="17"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="86"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="127"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -8596,22 +8644,22 @@
     <row r="22" spans="1:26" ht="18" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="86"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="127"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -8624,22 +8672,22 @@
     <row r="23" spans="1:26" ht="18" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
       <c r="I23" s="16"/>
       <c r="J23" s="17"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="86"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="127"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -8652,22 +8700,22 @@
     <row r="24" spans="1:26" ht="18" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="86"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="127"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -8680,22 +8728,22 @@
     <row r="25" spans="1:26" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="125"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="86"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="127"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -8708,22 +8756,22 @@
     <row r="26" spans="1:26" ht="18" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
       <c r="I26" s="16"/>
       <c r="J26" s="17"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="86"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="127"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -8736,22 +8784,22 @@
     <row r="27" spans="1:26" ht="18" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="125"/>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="86"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="127"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -8764,22 +8812,22 @@
     <row r="28" spans="1:26" ht="18" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="16"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="86"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="127"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -8792,22 +8840,22 @@
     <row r="29" spans="1:26" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="16"/>
       <c r="J29" s="17"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="86"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="127"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -8820,22 +8868,22 @@
     <row r="30" spans="1:26" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="86"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="127"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -8848,22 +8896,22 @@
     <row r="31" spans="1:26" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="86"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="127"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -8876,22 +8924,22 @@
     <row r="32" spans="1:26" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="86"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="127"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -8904,22 +8952,22 @@
     <row r="33" spans="1:26" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
       <c r="I33" s="16"/>
       <c r="J33" s="17"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="86"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -8932,22 +8980,22 @@
     <row r="34" spans="1:26" ht="18" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="16"/>
       <c r="J34" s="17"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="86"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="127"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -8960,22 +9008,22 @@
     <row r="35" spans="1:26" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="16"/>
       <c r="J35" s="17"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="86"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="127"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -8988,22 +9036,22 @@
     <row r="36" spans="1:26" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
       <c r="I36" s="16"/>
       <c r="J36" s="17"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="86"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="127"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -9016,22 +9064,22 @@
     <row r="37" spans="1:26" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="125"/>
       <c r="I37" s="16"/>
       <c r="J37" s="17"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="86"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="127"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -9044,22 +9092,22 @@
     <row r="38" spans="1:26" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="89"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="96"/>
       <c r="I38" s="22"/>
       <c r="J38" s="23"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="91"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="139"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="99"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -9099,6 +9147,98 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:J3"/>
@@ -9115,98 +9255,6 @@
     <mergeCell ref="O5:R6"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="O36:R36"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9273,25 +9321,25 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="117"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="93"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -9307,37 +9355,37 @@
         <v>10</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="119"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="97"/>
       <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="118" t="str">
+      <c r="L3" s="94" t="str">
         <f>履歴情報!E3</f>
         <v>徐泽锴/崔光普秀</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="120">
+      <c r="P3" s="98">
         <f>履歴情報!F3</f>
         <v>45029</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="91"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="99"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -9377,41 +9425,41 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="124" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="126" t="s">
+      <c r="J5" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="124" t="s">
+      <c r="M5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="N5" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="128" t="s">
+      <c r="O5" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="131"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -9423,27 +9471,27 @@
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="136" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="135"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="115"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -9459,16 +9507,16 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="108" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="10" t="s">
         <v>26</v>
       </c>
@@ -9483,10 +9531,10 @@
       <c r="N7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="86"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="127"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -9502,16 +9550,16 @@
         <f>ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="82" t="s">
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="14" t="s">
         <v>31</v>
       </c>
@@ -9524,10 +9572,10 @@
       <c r="N8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="86"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="127"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -9543,16 +9591,16 @@
         <f>ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="82" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
       <c r="I9" s="14" t="s">
         <v>31</v>
       </c>
@@ -9565,10 +9613,10 @@
       <c r="N9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="86"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="127"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -9584,16 +9632,16 @@
         <f>ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="82" t="s">
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="14" t="s">
         <v>37</v>
       </c>
@@ -9606,10 +9654,10 @@
       <c r="N10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="86"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="127"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -9625,16 +9673,16 @@
         <f>ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="82" t="s">
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="14" t="s">
         <v>37</v>
       </c>
@@ -9645,10 +9693,10 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="86"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="127"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -9661,22 +9709,22 @@
     <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="86"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="127"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -9701,10 +9749,10 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="86"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="127"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -9717,22 +9765,22 @@
     <row r="14" spans="1:26" ht="18" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="16"/>
       <c r="J14" s="17"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="86"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="127"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -9757,10 +9805,10 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="86"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="127"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -9773,22 +9821,22 @@
     <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="16"/>
       <c r="J16" s="17"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="86"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="127"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -9801,22 +9849,22 @@
     <row r="17" spans="1:26" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="16"/>
       <c r="J17" s="17"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="86"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="127"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -9829,22 +9877,22 @@
     <row r="18" spans="1:26" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="16"/>
       <c r="J18" s="17"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="86"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="127"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -9857,22 +9905,22 @@
     <row r="19" spans="1:26" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="86"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="127"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -9885,22 +9933,22 @@
     <row r="20" spans="1:26" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="16"/>
       <c r="J20" s="17"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="86"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="127"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -9913,22 +9961,22 @@
     <row r="21" spans="1:26" ht="18" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
       <c r="I21" s="16"/>
       <c r="J21" s="17"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="86"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="127"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -9941,22 +9989,22 @@
     <row r="22" spans="1:26" ht="18" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
       <c r="I22" s="16"/>
       <c r="J22" s="17"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="86"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="127"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -9969,22 +10017,22 @@
     <row r="23" spans="1:26" ht="18" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
       <c r="I23" s="16"/>
       <c r="J23" s="17"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="86"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="127"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -9997,22 +10045,22 @@
     <row r="24" spans="1:26" ht="18" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="86"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="127"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -10025,22 +10073,22 @@
     <row r="25" spans="1:26" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="125"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="86"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="127"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -10053,22 +10101,22 @@
     <row r="26" spans="1:26" ht="18" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
       <c r="I26" s="16"/>
       <c r="J26" s="17"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="86"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="127"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -10081,22 +10129,22 @@
     <row r="27" spans="1:26" ht="18" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="125"/>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="86"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="127"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -10109,22 +10157,22 @@
     <row r="28" spans="1:26" ht="18" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="16"/>
       <c r="J28" s="17"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="86"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="127"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -10137,22 +10185,22 @@
     <row r="29" spans="1:26" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="16"/>
       <c r="J29" s="17"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="86"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="127"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -10165,22 +10213,22 @@
     <row r="30" spans="1:26" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="86"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="127"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -10193,22 +10241,22 @@
     <row r="31" spans="1:26" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="86"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="127"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -10221,22 +10269,22 @@
     <row r="32" spans="1:26" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="86"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="127"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -10249,22 +10297,22 @@
     <row r="33" spans="1:26" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
       <c r="I33" s="16"/>
       <c r="J33" s="17"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="86"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -10277,22 +10325,22 @@
     <row r="34" spans="1:26" ht="18" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="16"/>
       <c r="J34" s="17"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="86"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="127"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -10305,22 +10353,22 @@
     <row r="35" spans="1:26" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="16"/>
       <c r="J35" s="17"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="86"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="127"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -10333,22 +10381,22 @@
     <row r="36" spans="1:26" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
       <c r="I36" s="16"/>
       <c r="J36" s="17"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="86"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="127"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -10361,22 +10409,22 @@
     <row r="37" spans="1:26" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="125"/>
       <c r="I37" s="16"/>
       <c r="J37" s="17"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="86"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="127"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -10389,22 +10437,22 @@
     <row r="38" spans="1:26" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="125"/>
       <c r="I38" s="16"/>
       <c r="J38" s="17"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="86"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="127"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -10417,22 +10465,22 @@
     <row r="39" spans="1:26" ht="18" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="89"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="22"/>
       <c r="J39" s="23"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="91"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="99"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -10500,6 +10548,101 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="O9:R9"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:J3"/>
@@ -10516,101 +10659,6 @@
     <mergeCell ref="O5:R6"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="O38:R38"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10624,7 +10672,7 @@
   </sheetPr>
   <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -10677,25 +10725,25 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="117"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="93"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -10711,37 +10759,37 @@
         <v>10</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="118" t="str">
+      <c r="L3" s="94" t="str">
         <f>履歴情報!E3</f>
         <v>徐泽锴/崔光普秀</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="120">
+      <c r="P3" s="98">
         <f>履歴情報!F3</f>
         <v>45029</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="91"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="99"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -10781,41 +10829,41 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="124" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="124" t="s">
+      <c r="J5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="124" t="s">
+      <c r="M5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="N5" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="128" t="s">
+      <c r="O5" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="131"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -10827,27 +10875,27 @@
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="136" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="135"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="115"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -10863,16 +10911,16 @@
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="10" t="s">
         <v>26</v>
       </c>
@@ -10887,10 +10935,10 @@
       <c r="N7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="82"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="86"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="127"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -10906,16 +10954,16 @@
         <f>ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="82" t="s">
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="14" t="s">
         <v>37</v>
       </c>
@@ -10928,10 +10976,10 @@
       <c r="N8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="86"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="127"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -10947,16 +10995,16 @@
         <f>ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="82" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
       <c r="I9" s="14" t="s">
         <v>37</v>
       </c>
@@ -10969,10 +11017,10 @@
       <c r="N9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="86"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="127"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -10985,22 +11033,22 @@
     <row r="10" spans="1:26" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="86"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="127"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -11013,22 +11061,22 @@
     <row r="11" spans="1:26" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="86"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="127"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -11041,22 +11089,22 @@
     <row r="12" spans="1:26" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="86"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="127"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -11081,10 +11129,10 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="86"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="127"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -11097,22 +11145,22 @@
     <row r="14" spans="1:26" ht="18" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="86"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="127"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -11137,10 +11185,10 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="86"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="127"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -11153,22 +11201,22 @@
     <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="86"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="127"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -11181,22 +11229,22 @@
     <row r="17" spans="1:26" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="86"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="127"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -11209,22 +11257,22 @@
     <row r="18" spans="1:26" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="86"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="127"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -11237,22 +11285,22 @@
     <row r="19" spans="1:26" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="86"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="127"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -11265,22 +11313,22 @@
     <row r="20" spans="1:26" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="86"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="127"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -11293,22 +11341,22 @@
     <row r="21" spans="1:26" ht="18" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="86"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="127"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -11321,22 +11369,22 @@
     <row r="22" spans="1:26" ht="18" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="86"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="127"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -11349,22 +11397,22 @@
     <row r="23" spans="1:26" ht="18" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="86"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="127"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -11377,22 +11425,22 @@
     <row r="24" spans="1:26" ht="18" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="86"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="127"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -11405,22 +11453,22 @@
     <row r="25" spans="1:26" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="125"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="86"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="127"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -11433,22 +11481,22 @@
     <row r="26" spans="1:26" ht="18" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="86"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="127"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -11461,22 +11509,22 @@
     <row r="27" spans="1:26" ht="18" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="125"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="86"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="127"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -11489,22 +11537,22 @@
     <row r="28" spans="1:26" ht="18" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="86"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="127"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -11517,22 +11565,22 @@
     <row r="29" spans="1:26" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="86"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="127"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -11545,22 +11593,22 @@
     <row r="30" spans="1:26" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="86"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="127"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -11573,22 +11621,22 @@
     <row r="31" spans="1:26" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="86"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="127"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -11601,22 +11649,22 @@
     <row r="32" spans="1:26" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="86"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="127"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -11629,22 +11677,22 @@
     <row r="33" spans="1:26" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="86"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -11657,22 +11705,22 @@
     <row r="34" spans="1:26" ht="18" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="86"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="127"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -11685,22 +11733,22 @@
     <row r="35" spans="1:26" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="86"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="127"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -11713,22 +11761,22 @@
     <row r="36" spans="1:26" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="86"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="127"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -11741,22 +11789,22 @@
     <row r="37" spans="1:26" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="125"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="86"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="127"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -11769,22 +11817,22 @@
     <row r="38" spans="1:26" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="125"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="86"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="127"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -11797,22 +11845,22 @@
     <row r="39" spans="1:26" ht="18" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="21"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="89"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="90"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="91"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="139"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="99"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -11880,6 +11928,101 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="O9:R9"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="H3:J3"/>
@@ -11896,101 +12039,6 @@
     <mergeCell ref="O5:R6"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="O38:R38"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12057,25 +12105,25 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="117"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="93"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -12091,33 +12139,33 @@
         <v>10</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="91"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="99"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -12157,41 +12205,41 @@
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="124" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="124" t="s">
+      <c r="J5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="124" t="s">
+      <c r="K5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="124" t="s">
+      <c r="L5" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="124" t="s">
+      <c r="M5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="124" t="s">
+      <c r="N5" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="128" t="s">
+      <c r="O5" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="131"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="111"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -12203,27 +12251,27 @@
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="136" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="136" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="134"/>
-      <c r="R6" s="135"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="115"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -12238,32 +12286,32 @@
       <c r="B7" s="40">
         <v>1</v>
       </c>
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="183" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J7" s="14">
         <v>20</v>
       </c>
-      <c r="K7" s="188" t="s">
+      <c r="K7" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="182"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="77"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -12278,34 +12326,34 @@
       <c r="B8" s="40">
         <v>2</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="186"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="183" t="s">
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="110"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
       <c r="I8" s="10" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="10">
         <v>20</v>
       </c>
-      <c r="K8" s="188"/>
-      <c r="L8" s="189" t="s">
+      <c r="K8" s="78"/>
+      <c r="L8" s="79" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="44"/>
-      <c r="N8" s="189" t="s">
+      <c r="N8" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="95"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="86"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="127"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -12320,16 +12368,16 @@
       <c r="B9" s="40">
         <v>3</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="82" t="s">
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
       <c r="I9" s="10" t="s">
         <v>54</v>
       </c>
@@ -12342,10 +12390,10 @@
       <c r="N9" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="86"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="127"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -12360,16 +12408,16 @@
       <c r="B10" s="40">
         <v>4</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="82" t="s">
+      <c r="D10" s="124"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="14" t="s">
         <v>54</v>
       </c>
@@ -12382,10 +12430,10 @@
       <c r="N10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="86"/>
+      <c r="O10" s="123"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="127"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -12400,16 +12448,16 @@
       <c r="B11" s="40">
         <v>5</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="82" t="s">
+      <c r="D11" s="124"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="14" t="s">
         <v>37</v>
       </c>
@@ -12422,10 +12470,10 @@
       <c r="N11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="82"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="86"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="127"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -12440,16 +12488,16 @@
       <c r="B12" s="40">
         <v>6</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="82" t="s">
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="14" t="s">
         <v>37</v>
       </c>
@@ -12462,10 +12510,10 @@
       <c r="N12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="86"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="127"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -12480,16 +12528,16 @@
       <c r="B13" s="40">
         <v>7</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="82" t="s">
+      <c r="D13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="14" t="s">
         <v>37</v>
       </c>
@@ -12500,10 +12548,10 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="86"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="127"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -12518,16 +12566,16 @@
       <c r="B14" s="40">
         <v>8</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="82" t="s">
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="14" t="s">
         <v>37</v>
       </c>
@@ -12538,10 +12586,10 @@
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="86"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="127"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -12554,22 +12602,22 @@
     <row r="15" spans="1:26" ht="18" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="86"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="127"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -12582,22 +12630,22 @@
     <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="86"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="127"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -12610,22 +12658,22 @@
     <row r="17" spans="1:26" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
       <c r="N17" s="10"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="86"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="127"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -12638,22 +12686,22 @@
     <row r="18" spans="1:26" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="10"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="86"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="127"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -12666,22 +12714,22 @@
     <row r="19" spans="1:26" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="16"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
       <c r="N19" s="10"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="86"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="127"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -12694,22 +12742,22 @@
     <row r="20" spans="1:26" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="16"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="10"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="86"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="127"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -12722,22 +12770,22 @@
     <row r="21" spans="1:26" ht="18" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
       <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
       <c r="N21" s="10"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="86"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="127"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -12750,22 +12798,22 @@
     <row r="22" spans="1:26" ht="18" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="125"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="86"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="127"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -12778,22 +12826,22 @@
     <row r="23" spans="1:26" ht="18" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="86"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="127"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -12806,22 +12854,22 @@
     <row r="24" spans="1:26" ht="18" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="86"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="127"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -12834,22 +12882,22 @@
     <row r="25" spans="1:26" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="125"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="86"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="127"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -12862,22 +12910,22 @@
     <row r="26" spans="1:26" ht="18" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="86"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="127"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -12890,22 +12938,22 @@
     <row r="27" spans="1:26" ht="18" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="125"/>
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="86"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="127"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -12918,22 +12966,22 @@
     <row r="28" spans="1:26" ht="18" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="86"/>
+      <c r="O28" s="123"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="127"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -12946,22 +12994,22 @@
     <row r="29" spans="1:26" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="20"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="86"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="127"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -12974,22 +13022,22 @@
     <row r="30" spans="1:26" ht="18" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="20"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="86"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="127"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -13002,22 +13050,22 @@
     <row r="31" spans="1:26" ht="18" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="86"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="127"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -13030,22 +13078,22 @@
     <row r="32" spans="1:26" ht="18" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="86"/>
+      <c r="O32" s="123"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="127"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -13058,22 +13106,22 @@
     <row r="33" spans="1:26" ht="18" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="125"/>
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="86"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="127"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -13086,22 +13134,22 @@
     <row r="34" spans="1:26" ht="18" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="86"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="126"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="127"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -13114,22 +13162,22 @@
     <row r="35" spans="1:26" ht="18" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="86"/>
+      <c r="O35" s="123"/>
+      <c r="P35" s="126"/>
+      <c r="Q35" s="124"/>
+      <c r="R35" s="127"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -13142,22 +13190,22 @@
     <row r="36" spans="1:26" ht="18" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="125"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="86"/>
+      <c r="O36" s="123"/>
+      <c r="P36" s="126"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="127"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -13170,22 +13218,22 @@
     <row r="37" spans="1:26" ht="18" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="125"/>
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="86"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="127"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -13198,22 +13246,22 @@
     <row r="38" spans="1:26" ht="18" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="125"/>
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="86"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="127"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -13226,22 +13274,22 @@
     <row r="39" spans="1:26" ht="18" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="20"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="125"/>
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="86"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="126"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="127"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -13254,22 +13302,22 @@
     <row r="40" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
       <c r="B40" s="21"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="89"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="96"/>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="91"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="139"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="99"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -13337,99 +13385,6 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:R6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="O31:R31"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="O40:R40"/>
@@ -13454,6 +13409,99 @@
     <mergeCell ref="O34:R34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:H35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:R6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13520,25 +13568,25 @@
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="A2" s="48"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="171"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="48"/>
       <c r="T2" s="48"/>
       <c r="U2" s="48"/>
@@ -13554,36 +13602,36 @@
         <v>10</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="D3" s="172" t="s">
+      <c r="D3" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
       <c r="G3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="173" t="s">
+      <c r="H3" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="141"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="172" t="s">
+      <c r="L3" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="141"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="174">
+      <c r="P3" s="173">
         <f>履歴情報!F3</f>
         <v>45029</v>
       </c>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="143"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="174"/>
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
@@ -13629,35 +13677,35 @@
       <c r="C5" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="158" t="s">
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="158" t="s">
+      <c r="K5" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="158" t="s">
+      <c r="L5" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="158" t="s">
+      <c r="M5" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="158" t="s">
+      <c r="N5" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="160" t="s">
+      <c r="O5" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="163"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="159"/>
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
       <c r="U5" s="48"/>
@@ -13670,26 +13718,26 @@
     <row r="6" spans="1:26" ht="18" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="176"/>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="140"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="168" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="140"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="167"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="163"/>
       <c r="S6" s="48"/>
       <c r="T6" s="48"/>
       <c r="U6" s="48"/>
@@ -13704,16 +13752,16 @@
       <c r="B7" s="65">
         <v>1</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="144" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="146"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="142"/>
       <c r="I7" s="45" t="s">
         <v>31</v>
       </c>
@@ -13726,10 +13774,10 @@
       <c r="N7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="149"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="151"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="181"/>
       <c r="S7" s="48"/>
       <c r="T7" s="48"/>
       <c r="U7" s="48"/>
@@ -13744,16 +13792,16 @@
       <c r="B8" s="65">
         <v>2</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="144" t="s">
+      <c r="D8" s="141"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="146"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="142"/>
       <c r="I8" s="45" t="s">
         <v>69</v>
       </c>
@@ -13768,10 +13816,10 @@
       <c r="N8" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="151"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="181"/>
       <c r="S8" s="48"/>
       <c r="T8" s="48"/>
       <c r="U8" s="48"/>
@@ -13786,16 +13834,16 @@
       <c r="B9" s="65">
         <v>3</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="144" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
       <c r="I9" s="45" t="s">
         <v>69</v>
       </c>
@@ -13828,16 +13876,16 @@
       <c r="B10" s="65">
         <v>4</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="144" t="s">
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="145"/>
-      <c r="H10" s="146"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
       <c r="I10" s="45" t="s">
         <v>34</v>
       </c>
@@ -13866,16 +13914,16 @@
       <c r="B11" s="65">
         <v>5</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="144" t="s">
+      <c r="D11" s="141"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
       <c r="I11" s="45" t="s">
         <v>66</v>
       </c>
@@ -13904,16 +13952,16 @@
       <c r="B12" s="65">
         <v>6</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="144" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="145"/>
-      <c r="H12" s="146"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="142"/>
       <c r="I12" s="45" t="s">
         <v>31</v>
       </c>
@@ -13942,16 +13990,16 @@
       <c r="B13" s="65">
         <v>7</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="111" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
       <c r="I13" s="45" t="s">
         <v>37</v>
       </c>
@@ -13964,10 +14012,10 @@
       <c r="N13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="111"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="151"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="179"/>
+      <c r="Q13" s="180"/>
+      <c r="R13" s="181"/>
       <c r="S13" s="48"/>
       <c r="T13" s="48"/>
       <c r="U13" s="48"/>
@@ -13982,16 +14030,16 @@
       <c r="B14" s="65">
         <v>8</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="111" t="s">
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="45" t="s">
         <v>37</v>
       </c>
@@ -14004,10 +14052,10 @@
       <c r="N14" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="111"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="151"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="181"/>
       <c r="S14" s="48"/>
       <c r="T14" s="48"/>
       <c r="U14" s="48"/>
@@ -14020,22 +14068,22 @@
     <row r="15" spans="1:26" ht="18" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="61"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="155"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
       <c r="I15" s="45"/>
       <c r="J15" s="62"/>
       <c r="K15" s="63"/>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
       <c r="N15" s="57"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="151"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="179"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="181"/>
       <c r="S15" s="48"/>
       <c r="T15" s="48"/>
       <c r="U15" s="48"/>
@@ -14048,22 +14096,22 @@
     <row r="16" spans="1:26" ht="18" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="56"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="152"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="182"/>
       <c r="I16" s="45"/>
       <c r="J16" s="45"/>
       <c r="K16" s="64"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="57"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="151"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="179"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="181"/>
       <c r="S16" s="48"/>
       <c r="T16" s="48"/>
       <c r="U16" s="48"/>
@@ -14076,22 +14124,22 @@
     <row r="17" spans="1:26" ht="18" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="152"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="182"/>
       <c r="I17" s="45"/>
       <c r="J17" s="45"/>
       <c r="K17" s="64"/>
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
       <c r="N17" s="57"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="151"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="179"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="181"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
@@ -14104,22 +14152,22 @@
     <row r="18" spans="1:26" ht="18" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="142"/>
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
       <c r="K18" s="64"/>
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
       <c r="N18" s="57"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="151"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="181"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
       <c r="U18" s="48"/>
@@ -14132,22 +14180,22 @@
     <row r="19" spans="1:26" ht="18" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="56"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="152"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="182"/>
       <c r="I19" s="45"/>
       <c r="J19" s="45"/>
       <c r="K19" s="64"/>
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
       <c r="N19" s="57"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="151"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="179"/>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="181"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
@@ -14160,22 +14208,22 @@
     <row r="20" spans="1:26" ht="18" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="65"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="122"/>
       <c r="I20" s="45"/>
       <c r="J20" s="45"/>
       <c r="K20" s="64"/>
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
       <c r="N20" s="57"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="148"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="187"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
@@ -14188,22 +14236,22 @@
     <row r="21" spans="1:26" ht="18" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="65"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="122"/>
       <c r="I21" s="64"/>
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
       <c r="N21" s="57"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="148"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="187"/>
       <c r="S21" s="48"/>
       <c r="T21" s="48"/>
       <c r="U21" s="48"/>
@@ -14216,22 +14264,22 @@
     <row r="22" spans="1:26" ht="18" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="65"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="122"/>
       <c r="I22" s="64"/>
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
       <c r="N22" s="57"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="148"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="187"/>
       <c r="S22" s="48"/>
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
@@ -14244,22 +14292,22 @@
     <row r="23" spans="1:26" ht="18" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="65"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="113"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="64"/>
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
       <c r="N23" s="57"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="148"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="186"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="187"/>
       <c r="S23" s="48"/>
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
@@ -14272,22 +14320,22 @@
     <row r="24" spans="1:26" ht="18" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="65"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="122"/>
       <c r="I24" s="64"/>
       <c r="J24" s="64"/>
       <c r="K24" s="64"/>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
       <c r="N24" s="64"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="148"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="186"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="187"/>
       <c r="S24" s="48"/>
       <c r="T24" s="48"/>
       <c r="U24" s="48"/>
@@ -14300,22 +14348,22 @@
     <row r="25" spans="1:26" ht="18" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="65"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="113"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
       <c r="K25" s="64"/>
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
       <c r="N25" s="64"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="148"/>
+      <c r="O25" s="120"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="187"/>
       <c r="S25" s="48"/>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
@@ -14328,22 +14376,22 @@
     <row r="26" spans="1:26" ht="18" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="122"/>
       <c r="I26" s="64"/>
       <c r="J26" s="64"/>
       <c r="K26" s="64"/>
       <c r="L26" s="64"/>
       <c r="M26" s="64"/>
       <c r="N26" s="64"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="148"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="187"/>
       <c r="S26" s="48"/>
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
@@ -14356,22 +14404,22 @@
     <row r="27" spans="1:26" ht="18" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="66"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="113"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
       <c r="I27" s="64"/>
       <c r="J27" s="64"/>
       <c r="K27" s="64"/>
       <c r="L27" s="64"/>
       <c r="M27" s="64"/>
       <c r="N27" s="64"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="148"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="187"/>
       <c r="S27" s="48"/>
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
@@ -14384,22 +14432,22 @@
     <row r="28" spans="1:26" ht="18" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="66"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="113"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
       <c r="I28" s="64"/>
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
       <c r="L28" s="64"/>
       <c r="M28" s="64"/>
       <c r="N28" s="64"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="147"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="148"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="187"/>
       <c r="S28" s="48"/>
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
@@ -14412,22 +14460,22 @@
     <row r="29" spans="1:26" ht="18" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="66"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="113"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="64"/>
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
       <c r="L29" s="64"/>
       <c r="M29" s="64"/>
       <c r="N29" s="64"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="148"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="187"/>
       <c r="S29" s="48"/>
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
@@ -14440,22 +14488,22 @@
     <row r="30" spans="1:26" ht="18" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="66"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="113"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
       <c r="I30" s="64"/>
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
       <c r="L30" s="64"/>
       <c r="M30" s="64"/>
       <c r="N30" s="64"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="148"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="187"/>
       <c r="S30" s="48"/>
       <c r="T30" s="48"/>
       <c r="U30" s="48"/>
@@ -14468,22 +14516,22 @@
     <row r="31" spans="1:26" ht="18" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="66"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="122"/>
       <c r="I31" s="64"/>
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
       <c r="L31" s="64"/>
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="148"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="187"/>
       <c r="S31" s="48"/>
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
@@ -14496,22 +14544,22 @@
     <row r="32" spans="1:26" ht="18" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="66"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="122"/>
       <c r="I32" s="64"/>
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
-      <c r="O32" s="111"/>
-      <c r="P32" s="147"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="148"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="187"/>
       <c r="S32" s="48"/>
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
@@ -14524,22 +14572,22 @@
     <row r="33" spans="1:26" ht="18" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="66"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="113"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
       <c r="I33" s="64"/>
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
       <c r="L33" s="64"/>
       <c r="M33" s="64"/>
       <c r="N33" s="64"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="148"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="187"/>
       <c r="S33" s="48"/>
       <c r="T33" s="48"/>
       <c r="U33" s="48"/>
@@ -14552,22 +14600,22 @@
     <row r="34" spans="1:26" ht="18" customHeight="1">
       <c r="A34" s="48"/>
       <c r="B34" s="66"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="113"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="122"/>
       <c r="I34" s="64"/>
       <c r="J34" s="64"/>
       <c r="K34" s="64"/>
       <c r="L34" s="64"/>
       <c r="M34" s="64"/>
       <c r="N34" s="64"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="147"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="148"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="187"/>
       <c r="S34" s="48"/>
       <c r="T34" s="48"/>
       <c r="U34" s="48"/>
@@ -14580,22 +14628,22 @@
     <row r="35" spans="1:26" ht="18" customHeight="1">
       <c r="A35" s="48"/>
       <c r="B35" s="66"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="122"/>
       <c r="I35" s="64"/>
       <c r="J35" s="64"/>
       <c r="K35" s="64"/>
       <c r="L35" s="64"/>
       <c r="M35" s="64"/>
       <c r="N35" s="64"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="148"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="187"/>
       <c r="S35" s="48"/>
       <c r="T35" s="48"/>
       <c r="U35" s="48"/>
@@ -14608,22 +14656,22 @@
     <row r="36" spans="1:26" ht="18" customHeight="1">
       <c r="A36" s="48"/>
       <c r="B36" s="66"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="113"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="122"/>
       <c r="I36" s="64"/>
       <c r="J36" s="64"/>
       <c r="K36" s="64"/>
       <c r="L36" s="64"/>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="148"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="187"/>
       <c r="S36" s="48"/>
       <c r="T36" s="48"/>
       <c r="U36" s="48"/>
@@ -14636,22 +14684,22 @@
     <row r="37" spans="1:26" ht="18" customHeight="1">
       <c r="A37" s="48"/>
       <c r="B37" s="66"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="113"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="122"/>
       <c r="I37" s="64"/>
       <c r="J37" s="64"/>
       <c r="K37" s="64"/>
       <c r="L37" s="64"/>
       <c r="M37" s="64"/>
       <c r="N37" s="64"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="147"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="148"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="187"/>
       <c r="S37" s="48"/>
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
@@ -14664,22 +14712,22 @@
     <row r="38" spans="1:26" ht="18" customHeight="1">
       <c r="A38" s="48"/>
       <c r="B38" s="66"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="113"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="122"/>
       <c r="I38" s="64"/>
       <c r="J38" s="64"/>
       <c r="K38" s="64"/>
       <c r="L38" s="64"/>
       <c r="M38" s="64"/>
       <c r="N38" s="64"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="148"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="187"/>
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
       <c r="U38" s="48"/>
@@ -14692,22 +14740,22 @@
     <row r="39" spans="1:26" ht="18" customHeight="1">
       <c r="A39" s="48"/>
       <c r="B39" s="66"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="113"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
       <c r="I39" s="64"/>
       <c r="J39" s="64"/>
       <c r="K39" s="64"/>
       <c r="L39" s="64"/>
       <c r="M39" s="64"/>
       <c r="N39" s="64"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="148"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="186"/>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="187"/>
       <c r="S39" s="48"/>
       <c r="T39" s="48"/>
       <c r="U39" s="48"/>
@@ -14720,22 +14768,22 @@
     <row r="40" spans="1:26" ht="18" customHeight="1">
       <c r="A40" s="48"/>
       <c r="B40" s="66"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="113"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="122"/>
       <c r="I40" s="64"/>
       <c r="J40" s="64"/>
       <c r="K40" s="64"/>
       <c r="L40" s="64"/>
       <c r="M40" s="64"/>
       <c r="N40" s="64"/>
-      <c r="O40" s="111"/>
-      <c r="P40" s="147"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="148"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="186"/>
+      <c r="Q40" s="121"/>
+      <c r="R40" s="187"/>
       <c r="S40" s="48"/>
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
@@ -14748,22 +14796,22 @@
     <row r="41" spans="1:26" ht="18" customHeight="1">
       <c r="A41" s="48"/>
       <c r="B41" s="66"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122"/>
       <c r="I41" s="64"/>
       <c r="J41" s="64"/>
       <c r="K41" s="64"/>
       <c r="L41" s="64"/>
       <c r="M41" s="64"/>
       <c r="N41" s="64"/>
-      <c r="O41" s="111"/>
-      <c r="P41" s="147"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="148"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="186"/>
+      <c r="Q41" s="121"/>
+      <c r="R41" s="187"/>
       <c r="S41" s="48"/>
       <c r="T41" s="48"/>
       <c r="U41" s="48"/>
@@ -14776,22 +14824,22 @@
     <row r="42" spans="1:26" ht="18" customHeight="1">
       <c r="A42" s="48"/>
       <c r="B42" s="67"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="141"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="166"/>
       <c r="I42" s="68"/>
       <c r="J42" s="68"/>
       <c r="K42" s="68"/>
       <c r="L42" s="68"/>
       <c r="M42" s="68"/>
       <c r="N42" s="68"/>
-      <c r="O42" s="139"/>
-      <c r="P42" s="142"/>
-      <c r="Q42" s="140"/>
-      <c r="R42" s="143"/>
+      <c r="O42" s="188"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="165"/>
+      <c r="R42" s="174"/>
       <c r="S42" s="48"/>
       <c r="T42" s="48"/>
       <c r="U42" s="48"/>
@@ -14859,102 +14907,6 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:R6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="O13:R13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="O37:R37"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="O35:R35"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="O42:R42"/>
@@ -14979,6 +14931,102 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="O36:R36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="O37:R37"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:R6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
